--- a/buff/goods.xlsx
+++ b/buff/goods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py项目\buff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B2E8FE-2508-45D6-AB6A-62117ED41A5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5958907-DF64-4FDA-BC36-9D6F7ECF99D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18024" windowHeight="8208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>HeroName</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://buff.163.com/market/goods?goods_id=3556&amp;from=market#tab=selling&amp;tag_ids=1410 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://buff.163.com/market/goods?goods_id=23444&amp;from=market#tab=selling&amp;tag_ids=7992 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://buff.163.com/market/goods?goods_id=3521&amp;from=market#tab=selling&amp;tag_ids=12994 </t>
   </si>
   <si>
     <t xml:space="preserve">https://buff.163.com/market/goods?goods_id=24157&amp;from=market#tab=selling&amp;tag_ids=1534 </t>
@@ -420,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -458,7 +452,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3">
-        <v>4.9000000000000004</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -466,7 +460,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4">
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -474,7 +468,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -482,7 +476,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -490,7 +484,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>9.5</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -498,7 +492,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -506,7 +500,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -522,7 +516,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -530,7 +524,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -538,26 +532,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>145</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
